--- a/data/trans_orig/CAGE_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Provincia-trans_orig.xlsx
@@ -747,16 +747,16 @@
         <v>929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7661</v>
+        <v>8259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01045365837999085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003402834535736818</v>
+        <v>0.003401432890193411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02806225766155175</v>
+        <v>0.03025266374961878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5671</v>
+        <v>5643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003789234750481318</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02174195142919316</v>
+        <v>0.02163556255571755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8782</v>
+        <v>9550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007197421704368735</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001797564620380968</v>
+        <v>0.001816508755827907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01645073338684558</v>
+        <v>0.01788838815758739</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>270156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265349</v>
+        <v>264751</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>272081</v>
@@ -824,10 +824,10 @@
         <v>0.9895463416200091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9719377423384482</v>
+        <v>0.9697473362503821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9965971654642631</v>
+        <v>0.9965985671098065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -836,7 +836,7 @@
         <v>259850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255167</v>
+        <v>255195</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>260838</v>
@@ -845,7 +845,7 @@
         <v>0.9962107652495187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9782580485708083</v>
+        <v>0.9783644374442837</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>530006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525066</v>
+        <v>524298</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>532888</v>
+        <v>532878</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9928025782956312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9835492666131544</v>
+        <v>0.9821116118424126</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982024353796189</v>
+        <v>0.998183491244172</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2886</v>
+        <v>2846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13328</v>
+        <v>12971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01390456169937166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005852598187041579</v>
+        <v>0.00577125451277671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02703073684377427</v>
+        <v>0.02630687577769669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>6856</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2878</v>
+        <v>2948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13115</v>
+        <v>13153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0068764564523072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002886462545690755</v>
+        <v>0.002956844347129567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01315463894018996</v>
+        <v>0.0131924727474943</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>486219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479747</v>
+        <v>480104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490189</v>
+        <v>490229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9860954383006283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9729692631562259</v>
+        <v>0.9736931242223039</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9941474018129585</v>
+        <v>0.9942287454872233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>499</v>
@@ -1058,19 +1058,19 @@
         <v>990168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>983909</v>
+        <v>983871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>994146</v>
+        <v>994076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9931235435476928</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9868453610598101</v>
+        <v>0.9868075272525058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971135374543093</v>
+        <v>0.9970431556528704</v>
       </c>
     </row>
     <row r="9">
@@ -1331,19 +1331,19 @@
         <v>6009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13341</v>
+        <v>12918</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01675459925228076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005534267108372374</v>
+        <v>0.005408314353197034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03719585029698762</v>
+        <v>0.03601586783886727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8875</v>
+        <v>8587</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007080520616920441</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02389293277047373</v>
+        <v>0.02311696141682497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1373,19 +1373,19 @@
         <v>8639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3513</v>
+        <v>3992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17842</v>
+        <v>17924</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01183286120372306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004812082295221432</v>
+        <v>0.005466988160520193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02443682548205672</v>
+        <v>0.02454944267092145</v>
       </c>
     </row>
     <row r="14">
@@ -1402,19 +1402,19 @@
         <v>352662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345330</v>
+        <v>345753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356686</v>
+        <v>356731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9832454007477193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9628041497030125</v>
+        <v>0.9639841321611328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944657328916277</v>
+        <v>0.994591685646803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -1423,7 +1423,7 @@
         <v>368826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362581</v>
+        <v>362869</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>371456</v>
@@ -1432,7 +1432,7 @@
         <v>0.9929194793830796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9761070672295261</v>
+        <v>0.9768830385831747</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1444,19 +1444,19 @@
         <v>721488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>712285</v>
+        <v>712203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>726614</v>
+        <v>726135</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9881671387962769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9755631745179434</v>
+        <v>0.9754505573290786</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951879177047785</v>
+        <v>0.9945330118394798</v>
       </c>
     </row>
     <row r="15">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5330</v>
+        <v>4973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004403767247217436</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02621524880015767</v>
+        <v>0.02445865368307782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9882</v>
+        <v>7772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007983316836591262</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04758615418613434</v>
+        <v>0.03742452619162866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9313</v>
+        <v>9175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006212529366968909</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02266036641034899</v>
+        <v>0.02232491480183959</v>
       </c>
     </row>
     <row r="17">
@@ -1619,7 +1619,7 @@
         <v>202413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197978</v>
+        <v>198335</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1628,7 +1628,7 @@
         <v>0.9955962327527825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9737847511998423</v>
+        <v>0.9755413463169209</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>206010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197786</v>
+        <v>199896</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>207668</v>
@@ -1649,7 +1649,7 @@
         <v>0.9920166831634087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9524138458138657</v>
+        <v>0.9625754738083702</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>408423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401663</v>
+        <v>401801</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>410976</v>
@@ -1670,7 +1670,7 @@
         <v>0.9937874706330311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9773396335896513</v>
+        <v>0.9776750851981605</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10212</v>
+        <v>9527</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009645211057655197</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03771022606754411</v>
+        <v>0.03518014581314902</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6066</v>
+        <v>6981</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007107863418582399</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0218085409287934</v>
+        <v>0.02509994314981903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1807,19 +1807,19 @@
         <v>4589</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11758</v>
+        <v>13322</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00835959016599201</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001879311138774497</v>
+        <v>0.001891945085330078</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02141827084802986</v>
+        <v>0.02426802723678717</v>
       </c>
     </row>
     <row r="20">
@@ -1836,7 +1836,7 @@
         <v>268199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260599</v>
+        <v>261284</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1845,7 +1845,7 @@
         <v>0.9903547889423449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9622897739324557</v>
+        <v>0.964819854186851</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>276167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272078</v>
+        <v>271163</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278144</v>
@@ -1866,7 +1866,7 @@
         <v>0.9928921365814176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9781914590712065</v>
+        <v>0.9749000568501808</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1878,19 +1878,19 @@
         <v>544366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537197</v>
+        <v>535633</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547923</v>
+        <v>547916</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.991640409834008</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9785817291519701</v>
+        <v>0.9757319727632124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9981206888612255</v>
+        <v>0.9981080549146699</v>
       </c>
     </row>
     <row r="21">
@@ -1982,19 +1982,19 @@
         <v>2800</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6846</v>
+        <v>7741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004552184883073444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001386115489046725</v>
+        <v>0.001370275354491217</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01113070544161208</v>
+        <v>0.0125869179714823</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2016,19 +2016,19 @@
         <v>2800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7367</v>
+        <v>7391</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002233972049737107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006819497878339539</v>
+        <v>0.0006767364030124169</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005878700078544362</v>
+        <v>0.005897442908117942</v>
       </c>
     </row>
     <row r="23">
@@ -2045,19 +2045,19 @@
         <v>612227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>608181</v>
+        <v>607286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>614175</v>
+        <v>614184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9954478151169266</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9888692945583883</v>
+        <v>0.9874130820285177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9986138845109533</v>
+        <v>0.9986297246455088</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>621</v>
@@ -2079,19 +2079,19 @@
         <v>1250446</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1245879</v>
+        <v>1245855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1252391</v>
+        <v>1252398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9977660279502629</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9941212999214551</v>
+        <v>0.9941025570918821</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.999318050212166</v>
+        <v>0.9993232635969876</v>
       </c>
     </row>
     <row r="24">
@@ -2183,19 +2183,19 @@
         <v>3612</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8677</v>
+        <v>8053</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004856597488953631</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001188693849649719</v>
+        <v>0.001189585744466165</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01166628246631527</v>
+        <v>0.01082754698440316</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7146</v>
+        <v>6151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002597694112704946</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009120998719969135</v>
+        <v>0.00785045533636221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2225,19 +2225,19 @@
         <v>5648</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2572</v>
+        <v>2368</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12580</v>
+        <v>12903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003697775619123724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001684119291722852</v>
+        <v>0.00155072415236451</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008236524717594401</v>
+        <v>0.008448054848846144</v>
       </c>
     </row>
     <row r="26">
@@ -2254,19 +2254,19 @@
         <v>740183</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>735118</v>
+        <v>735742</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>742911</v>
+        <v>742910</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9951434025110464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9883337175336847</v>
+        <v>0.9891724530155968</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9988113061503502</v>
+        <v>0.9988104142555339</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>743</v>
@@ -2275,7 +2275,7 @@
         <v>781476</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>776365</v>
+        <v>777360</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>783511</v>
@@ -2284,7 +2284,7 @@
         <v>0.9974023058872951</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9908790012800308</v>
+        <v>0.9921495446636378</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2296,19 +2296,19 @@
         <v>1521658</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1514726</v>
+        <v>1514403</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1524734</v>
+        <v>1524938</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9963022243808762</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9917634752824055</v>
+        <v>0.9915519451511539</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.998315880708277</v>
+        <v>0.9984492758476351</v>
       </c>
     </row>
     <row r="27">
@@ -2400,19 +2400,19 @@
         <v>25639</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007824928598742811</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2421,19 +2421,19 @@
         <v>9289</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002748785841692997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -2442,19 +2442,19 @@
         <v>34927</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005247711592209641</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
     </row>
     <row r="29">
@@ -2471,19 +2471,19 @@
         <v>3250904</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3289</v>
@@ -2492,19 +2492,19 @@
         <v>3369908</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6478</v>
@@ -2513,19 +2513,19 @@
         <v>6620814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="30">
@@ -2861,19 +2861,19 @@
         <v>22875</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15481</v>
+        <v>14840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34524</v>
+        <v>33877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07761154904566747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05252314539319033</v>
+        <v>0.05035121035034324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1171336804933219</v>
+        <v>0.1149387520917305</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5178</v>
+        <v>5130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00352293384010058</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01802786427520261</v>
+        <v>0.01785916058212448</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2903,19 +2903,19 @@
         <v>23887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15563</v>
+        <v>14744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35126</v>
+        <v>34901</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04104418683646192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02674095469102355</v>
+        <v>0.02533416565260829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06035567625975388</v>
+        <v>0.05996857874163787</v>
       </c>
     </row>
     <row r="5">
@@ -2932,19 +2932,19 @@
         <v>271863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260214</v>
+        <v>260861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279257</v>
+        <v>279898</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9223884509543325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.882866319506678</v>
+        <v>0.8850612479082699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9474768546068096</v>
+        <v>0.9496487896496569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -2953,7 +2953,7 @@
         <v>286233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282067</v>
+        <v>282115</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>287245</v>
@@ -2962,7 +2962,7 @@
         <v>0.9964770661598994</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819721357247974</v>
+        <v>0.9821408394178756</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2974,19 +2974,19 @@
         <v>558096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>546857</v>
+        <v>547082</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>566420</v>
+        <v>567239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9589558131635381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9396443237402459</v>
+        <v>0.940031421258362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9732590453089764</v>
+        <v>0.9746658343473916</v>
       </c>
     </row>
     <row r="6">
@@ -3078,19 +3078,19 @@
         <v>11341</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5551</v>
+        <v>6200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20305</v>
+        <v>23549</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0224344327814265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01098147251064558</v>
+        <v>0.01226400542482601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04016668416358255</v>
+        <v>0.04658398655151835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         <v>11341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5497</v>
+        <v>5883</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21344</v>
+        <v>21492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01101846160835493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00534048278521904</v>
+        <v>0.005715600743627477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02073705138100011</v>
+        <v>0.02088053275823856</v>
       </c>
     </row>
     <row r="8">
@@ -3141,19 +3141,19 @@
         <v>494186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485222</v>
+        <v>481978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499976</v>
+        <v>499327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9775655672185735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9598333158364175</v>
+        <v>0.9534160134484816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9890185274893545</v>
+        <v>0.987735994575174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -3175,19 +3175,19 @@
         <v>1017951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007948</v>
+        <v>1007800</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023795</v>
+        <v>1023409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.988981538391645</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.979262948619</v>
+        <v>0.9791194672417617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946595172147811</v>
+        <v>0.9942843992563726</v>
       </c>
     </row>
     <row r="9">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4927</v>
+        <v>5507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002890946751492854</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01444867321241133</v>
+        <v>0.01615004175167643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4929</v>
+        <v>4965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001482365166064988</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007410604393866199</v>
+        <v>0.007464828980228824</v>
       </c>
     </row>
     <row r="11">
@@ -3355,7 +3355,7 @@
         <v>340034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>336093</v>
+        <v>335513</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -3364,7 +3364,7 @@
         <v>0.9971090532485072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9855513267875887</v>
+        <v>0.9838499582483249</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3376,7 +3376,7 @@
         <v>664080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660137</v>
+        <v>660101</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -3385,7 +3385,7 @@
         <v>0.998517634833935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9925893956061336</v>
+        <v>0.9925351710197712</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4605</v>
+        <v>4646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002470192508632416</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01231281549708568</v>
+        <v>0.01242411852771794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4624</v>
+        <v>5291</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001210863449965968</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006061163597259849</v>
+        <v>0.006934552083272778</v>
       </c>
     </row>
     <row r="14">
@@ -3543,7 +3543,7 @@
         <v>373058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>369377</v>
+        <v>369336</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -3552,7 +3552,7 @@
         <v>0.9975298074913675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9876871845029144</v>
+        <v>0.987575881472282</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>762009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>758309</v>
+        <v>757642</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>762933</v>
@@ -3586,7 +3586,7 @@
         <v>0.998789136550034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9939388364027402</v>
+        <v>0.9930654479167267</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>6116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2284</v>
+        <v>2755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13094</v>
+        <v>12997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02876603479848497</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01074110411969075</v>
+        <v>0.01295652860280674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06158413413232149</v>
+        <v>0.06112811450781691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>6116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2308</v>
+        <v>2454</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12307</v>
+        <v>13028</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01415097178012724</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005339163355327445</v>
+        <v>0.005677485702768463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02847412888843107</v>
+        <v>0.03014301214279794</v>
       </c>
     </row>
     <row r="17">
@@ -3744,19 +3744,19 @@
         <v>206502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199524</v>
+        <v>199621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210334</v>
+        <v>209863</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9712339652015151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9384158658676786</v>
+        <v>0.9388718854921838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9892588958803092</v>
+        <v>0.9870434713971935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>212</v>
@@ -3778,19 +3778,19 @@
         <v>426093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419902</v>
+        <v>419181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429901</v>
+        <v>429755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9858490282198727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9715258711115689</v>
+        <v>0.9698569878572018</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946608366446725</v>
+        <v>0.9943225142972303</v>
       </c>
     </row>
     <row r="18">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6849</v>
+        <v>6930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003846115388084151</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02499680152282257</v>
+        <v>0.02529236775045763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5292</v>
+        <v>6210</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001902057267207694</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009552100773413747</v>
+        <v>0.01120983274559531</v>
       </c>
     </row>
     <row r="20">
@@ -3945,7 +3945,7 @@
         <v>272927</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267132</v>
+        <v>267051</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -3954,7 +3954,7 @@
         <v>0.9961538846119159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9750031984771768</v>
+        <v>0.9747076322495424</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>552958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>548720</v>
+        <v>547802</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>554012</v>
@@ -3988,7 +3988,7 @@
         <v>0.9980979427327923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9904478992265863</v>
+        <v>0.9887901672544046</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4083,19 +4083,19 @@
         <v>11800</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5674</v>
+        <v>6097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21139</v>
+        <v>20750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0178042715578321</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008560868817348917</v>
+        <v>0.009198764553445114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0318938675902956</v>
+        <v>0.03130682527915893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6776</v>
+        <v>6861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003070276580992533</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009765582768431464</v>
+        <v>0.009888050089623235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4125,19 +4125,19 @@
         <v>13931</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7891</v>
+        <v>8095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24736</v>
+        <v>24691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01026858148938706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005816815106011168</v>
+        <v>0.005967067646921926</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01823334503908651</v>
+        <v>0.01819995996368751</v>
       </c>
     </row>
     <row r="23">
@@ -4154,19 +4154,19 @@
         <v>650988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>641649</v>
+        <v>642038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657114</v>
+        <v>656691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9821957284421678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9681061324097044</v>
+        <v>0.968693174720841</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.991439131182651</v>
+        <v>0.9908012354465546</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>634</v>
@@ -4175,7 +4175,7 @@
         <v>691723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>687077</v>
+        <v>686992</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>693853</v>
@@ -4184,7 +4184,7 @@
         <v>0.9969297234190074</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9902344172315689</v>
+        <v>0.9901119499103768</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4196,19 +4196,19 @@
         <v>1342710</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1331905</v>
+        <v>1331950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1348750</v>
+        <v>1348546</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.989731418510613</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9817666549609136</v>
+        <v>0.9818000400363125</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9941831848939888</v>
+        <v>0.9940329323530781</v>
       </c>
     </row>
     <row r="24">
@@ -4300,19 +4300,19 @@
         <v>11715</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5205</v>
+        <v>5726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22437</v>
+        <v>23681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0150369433207167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006680469361415417</v>
+        <v>0.007349701714006398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02879896368536461</v>
+        <v>0.03039570264656115</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4970</v>
+        <v>5169</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001208996498941607</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00603297902624537</v>
+        <v>0.006274012565831858</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -4342,19 +4342,19 @@
         <v>12711</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6193</v>
+        <v>6214</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24134</v>
+        <v>24040</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00792993033863832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003863718375130935</v>
+        <v>0.003876557919667939</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01505616479014611</v>
+        <v>0.01499716664475672</v>
       </c>
     </row>
     <row r="26">
@@ -4371,19 +4371,19 @@
         <v>767383</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756661</v>
+        <v>755417</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773893</v>
+        <v>773372</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9849630566792833</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9712010363146354</v>
+        <v>0.9696042973534388</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9933195306385846</v>
+        <v>0.992650298285992</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>756</v>
@@ -4392,7 +4392,7 @@
         <v>822857</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>818883</v>
+        <v>818684</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>823853</v>
@@ -4401,7 +4401,7 @@
         <v>0.9987910035010584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9939670209737547</v>
+        <v>0.9937259874341698</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4413,19 +4413,19 @@
         <v>1590240</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1578817</v>
+        <v>1578911</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596758</v>
+        <v>1596737</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9920700696613617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.984943835209854</v>
+        <v>0.9850028333552432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.996136281624869</v>
+        <v>0.9961234420803319</v>
       </c>
     </row>
     <row r="27">
@@ -4517,19 +4517,19 @@
         <v>65826</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01920922225190768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -4538,19 +4538,19 @@
         <v>5124</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001440058127778784</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>66</v>
@@ -4559,19 +4559,19 @@
         <v>70950</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01015734220939642</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
     </row>
     <row r="29">
@@ -4588,19 +4588,19 @@
         <v>3360953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3293</v>
@@ -4609,19 +4609,19 @@
         <v>3553185</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6441</v>
@@ -4630,19 +4630,19 @@
         <v>6914138</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="30">
@@ -4978,19 +4978,19 @@
         <v>15063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8055</v>
+        <v>8157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24083</v>
+        <v>25279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05127732375647567</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02741870583475478</v>
+        <v>0.02776627657661174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08197991969285987</v>
+        <v>0.08605350976212968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4999,19 +4999,19 @@
         <v>6532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2735</v>
+        <v>2821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14914</v>
+        <v>14118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02262363223813703</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009473723251137654</v>
+        <v>0.009770667271533225</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05165831625547561</v>
+        <v>0.04890108707221222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -5020,19 +5020,19 @@
         <v>21595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13417</v>
+        <v>13143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33534</v>
+        <v>32811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03707488946259768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02303418285882048</v>
+        <v>0.02256446099812442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05757275496790732</v>
+        <v>0.05633067657059503</v>
       </c>
     </row>
     <row r="5">
@@ -5049,19 +5049,19 @@
         <v>278698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269678</v>
+        <v>268482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285706</v>
+        <v>285604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9487226762435244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9180200803071402</v>
+        <v>0.9139464902378706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9725812941652455</v>
+        <v>0.9722337234233885</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -5070,19 +5070,19 @@
         <v>282171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273789</v>
+        <v>274585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285968</v>
+        <v>285882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.977376367761863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9483416837445244</v>
+        <v>0.9510989129277878</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9905262767488624</v>
+        <v>0.9902293327284668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>524</v>
@@ -5091,19 +5091,19 @@
         <v>560869</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>548930</v>
+        <v>549653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569047</v>
+        <v>569321</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9629251105374024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9424272450320926</v>
+        <v>0.9436693234294048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769658171411795</v>
+        <v>0.9774355390018753</v>
       </c>
     </row>
     <row r="6">
@@ -5195,19 +5195,19 @@
         <v>4364</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10003</v>
+        <v>10763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008683834491445119</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002243058897384253</v>
+        <v>0.002237036068909327</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01990438071327261</v>
+        <v>0.02141642368383531</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6081</v>
+        <v>5490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002120210296058709</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01162534769078379</v>
+        <v>0.01049487945234651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -5237,19 +5237,19 @@
         <v>5473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12081</v>
+        <v>12078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005336400706544087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002089944853155507</v>
+        <v>0.00208124123124295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01177829639397966</v>
+        <v>0.0117763155859084</v>
       </c>
     </row>
     <row r="8">
@@ -5266,19 +5266,19 @@
         <v>498211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>492572</v>
+        <v>491812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501448</v>
+        <v>501451</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9913161655085548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9800956192867273</v>
+        <v>0.9785835763161645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977569411026157</v>
+        <v>0.9977629639310907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -5287,7 +5287,7 @@
         <v>521975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>517003</v>
+        <v>517594</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523084</v>
@@ -5296,7 +5296,7 @@
         <v>0.9978797897039413</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9883746523092162</v>
+        <v>0.989505120547654</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5308,19 +5308,19 @@
         <v>1020186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013578</v>
+        <v>1013581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023515</v>
+        <v>1023524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9946635992934559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9882217036060204</v>
+        <v>0.9882236844140916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979100551468445</v>
+        <v>0.997918758768757</v>
       </c>
     </row>
     <row r="9">
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5207</v>
+        <v>4042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00271570342380913</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01634397076481859</v>
+        <v>0.01268803031430195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4372</v>
+        <v>4893</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00132106031881698</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006676686271368102</v>
+        <v>0.007471308274932481</v>
       </c>
     </row>
     <row r="11">
@@ -5475,7 +5475,7 @@
         <v>317700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313358</v>
+        <v>314523</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5484,7 +5484,7 @@
         <v>0.9972842965761909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9836560292351815</v>
+        <v>0.9873119696856976</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>654009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650502</v>
+        <v>649981</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654874</v>
@@ -5518,7 +5518,7 @@
         <v>0.998678939681183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9933233137286318</v>
+        <v>0.9925286917250667</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6381</v>
+        <v>6193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00342538243962845</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01724845719647991</v>
+        <v>0.01673961767490601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6392</v>
+        <v>6345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001673520244106185</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008440670654490544</v>
+        <v>0.008379378071734231</v>
       </c>
     </row>
     <row r="14">
@@ -5676,7 +5676,7 @@
         <v>368697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363583</v>
+        <v>363771</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -5685,7 +5685,7 @@
         <v>0.9965746175603716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9827515428035201</v>
+        <v>0.9832603823250924</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>755980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>750855</v>
+        <v>750902</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>757247</v>
@@ -5719,7 +5719,7 @@
         <v>0.9983264797558938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9915593293455094</v>
+        <v>0.9916206219282658</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5814,19 +5814,19 @@
         <v>2857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7627</v>
+        <v>7689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01352509432267373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004421412796900445</v>
+        <v>0.00438907788464986</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03610804850986066</v>
+        <v>0.03640494395347395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5848,19 +5848,19 @@
         <v>2857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7599</v>
+        <v>7810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006646651379110101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00217869335669765</v>
+        <v>0.002183148358001807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01768029162364735</v>
+        <v>0.01817038817331853</v>
       </c>
     </row>
     <row r="17">
@@ -5877,19 +5877,19 @@
         <v>208364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203594</v>
+        <v>203532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210287</v>
+        <v>210294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9864749056773263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9638919514901395</v>
+        <v>0.963595056046526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955785872030996</v>
+        <v>0.9956109221153502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>223</v>
@@ -5911,19 +5911,19 @@
         <v>426951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422209</v>
+        <v>421998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428872</v>
+        <v>428870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9933533486208899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9823197083763526</v>
+        <v>0.9818296118266819</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9978213066433024</v>
+        <v>0.9978168516419983</v>
       </c>
     </row>
     <row r="18">
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5931</v>
+        <v>6111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007266066029983836</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02254065275644359</v>
+        <v>0.02322526714371699</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5206</v>
+        <v>4681</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003446089199000437</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01906177726363596</v>
+        <v>0.01713861205788479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -6057,19 +6057,19 @@
         <v>2853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7696</v>
+        <v>7624</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005320487807993302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001676113701993701</v>
+        <v>0.001680559707694946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01435109538504556</v>
+        <v>0.01421843327195159</v>
       </c>
     </row>
     <row r="20">
@@ -6086,7 +6086,7 @@
         <v>261211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257192</v>
+        <v>257012</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -6095,7 +6095,7 @@
         <v>0.9927339339700162</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9774593472435568</v>
+        <v>0.976774732856283</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6107,7 +6107,7 @@
         <v>272174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267909</v>
+        <v>268434</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>273115</v>
@@ -6116,7 +6116,7 @@
         <v>0.9965539108009995</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9809382227363647</v>
+        <v>0.9828613879421152</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6128,19 +6128,19 @@
         <v>533385</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528542</v>
+        <v>528614</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535339</v>
+        <v>535337</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9946795121920067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9856489046149545</v>
+        <v>0.9857815667280484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9983238862980063</v>
+        <v>0.998319440292305</v>
       </c>
     </row>
     <row r="21">
@@ -6232,19 +6232,19 @@
         <v>17289</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10633</v>
+        <v>9735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28251</v>
+        <v>29123</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02633293312526742</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01619503057651846</v>
+        <v>0.014827792445073</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04302833286845323</v>
+        <v>0.04435637382021047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6253,19 +6253,19 @@
         <v>6109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2674</v>
+        <v>2096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13096</v>
+        <v>12313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008837699357742923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003868027925278567</v>
+        <v>0.003031585236040427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01894381009868475</v>
+        <v>0.01781210699409608</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -6274,19 +6274,19 @@
         <v>23399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14963</v>
+        <v>14782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35576</v>
+        <v>34903</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01735987809966266</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01110146982917667</v>
+        <v>0.0109668764109634</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02639473546407474</v>
+        <v>0.02589508195014767</v>
       </c>
     </row>
     <row r="23">
@@ -6303,19 +6303,19 @@
         <v>639269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>628307</v>
+        <v>627435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645925</v>
+        <v>646823</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9736670668747326</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9569716671315459</v>
+        <v>0.9556436261797898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9838049694234812</v>
+        <v>0.9851722075549271</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>640</v>
@@ -6324,19 +6324,19 @@
         <v>685185</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>678198</v>
+        <v>678981</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>688620</v>
+        <v>689198</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9911623006422571</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9810561899013149</v>
+        <v>0.9821878930059036</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9961319720747169</v>
+        <v>0.9969684147639593</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1205</v>
@@ -6345,19 +6345,19 @@
         <v>1324453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1312276</v>
+        <v>1312949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1332889</v>
+        <v>1333070</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9826401219003373</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9736052645359254</v>
+        <v>0.9741049180498523</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9888985301708234</v>
+        <v>0.9890331235890365</v>
       </c>
     </row>
     <row r="24">
@@ -6449,19 +6449,19 @@
         <v>5162</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2028</v>
+        <v>1918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11539</v>
+        <v>11411</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006630558820267562</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002605330212588422</v>
+        <v>0.002462925963407763</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01482086416771829</v>
+        <v>0.01465644223675512</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7690</v>
+        <v>6566</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00265905305952324</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009308567229882872</v>
+        <v>0.007947470439238224</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -6491,19 +6491,19 @@
         <v>7359</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2937</v>
+        <v>3172</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14582</v>
+        <v>15228</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004585924447166474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001829946342204389</v>
+        <v>0.001976869284069795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009087010003487515</v>
+        <v>0.009489067439522223</v>
       </c>
     </row>
     <row r="26">
@@ -6520,19 +6520,19 @@
         <v>773421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767044</v>
+        <v>767172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776555</v>
+        <v>776665</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9933694411797325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9851791358322822</v>
+        <v>0.9853435577632454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973946697874116</v>
+        <v>0.9975370740365923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>753</v>
@@ -6541,7 +6541,7 @@
         <v>823970</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>818477</v>
+        <v>819601</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>826167</v>
@@ -6550,7 +6550,7 @@
         <v>0.9973409469404768</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9906914327701171</v>
+        <v>0.9920525295607617</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -6562,19 +6562,19 @@
         <v>1597391</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1590168</v>
+        <v>1589522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1601813</v>
+        <v>1601578</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9954140755528336</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9909129899965121</v>
+        <v>0.9905109325604777</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9981700536577955</v>
+        <v>0.9980231307159302</v>
       </c>
     </row>
     <row r="27">
@@ -6666,19 +6666,19 @@
         <v>48780</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01437098165460728</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -6687,19 +6687,19 @@
         <v>16888</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004764510512152104</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>60</v>
@@ -6708,19 +6708,19 @@
         <v>65668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009463780512459309</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
     </row>
     <row r="29">
@@ -6737,19 +6737,19 @@
         <v>3345570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3322</v>
@@ -6758,19 +6758,19 @@
         <v>3527654</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6509</v>
@@ -6779,19 +6779,19 @@
         <v>6873224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="30">
@@ -7127,19 +7127,19 @@
         <v>4920</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1237</v>
+        <v>1267</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12337</v>
+        <v>12210</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02895850636416191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007280161323032037</v>
+        <v>0.007457568946751082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07261205069003826</v>
+        <v>0.07186892143653494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7161,19 +7161,19 @@
         <v>4920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13033</v>
+        <v>12411</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01841804706069572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004704302206747953</v>
+        <v>0.004685175202517446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04878854169882629</v>
+        <v>0.04645912527721649</v>
       </c>
     </row>
     <row r="5">
@@ -7190,19 +7190,19 @@
         <v>164979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157562</v>
+        <v>157689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168662</v>
+        <v>168632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9710414936358381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9273879493099619</v>
+        <v>0.9281310785634652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992719838676968</v>
+        <v>0.992542431053249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -7224,19 +7224,19 @@
         <v>262210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254097</v>
+        <v>254719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>265873</v>
+        <v>265878</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9815819529393043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512114583011742</v>
+        <v>0.9535408747227838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9952956977932521</v>
+        <v>0.9953148247974826</v>
       </c>
     </row>
     <row r="6">
@@ -7497,19 +7497,19 @@
         <v>11073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5989</v>
+        <v>5992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17876</v>
+        <v>18460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05911433507098618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03197367668312771</v>
+        <v>0.03198747589047936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09543227082847297</v>
+        <v>0.0985519361060543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7518,19 +7518,19 @@
         <v>1713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5225</v>
+        <v>4836</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01920368377827589</v>
+        <v>0.0192036837782759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00514753389021897</v>
+        <v>0.005194064670219652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05857060587182984</v>
+        <v>0.05420912309290307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -7539,19 +7539,19 @@
         <v>12786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7604</v>
+        <v>7589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20449</v>
+        <v>20923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0462385577673628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02750007508209931</v>
+        <v>0.02744340533885103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07394920190257961</v>
+        <v>0.07566400946061319</v>
       </c>
     </row>
     <row r="11">
@@ -7568,19 +7568,19 @@
         <v>176240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169437</v>
+        <v>168853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181324</v>
+        <v>181321</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9408856649290137</v>
+        <v>0.9408856649290138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9045677291715281</v>
+        <v>0.9014480638939457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9680263233168723</v>
+        <v>0.9680125241095208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -7589,19 +7589,19 @@
         <v>87498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83986</v>
+        <v>84375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88752</v>
+        <v>88748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9807963162217241</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9414293941281709</v>
+        <v>0.9457908769070971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948524661097811</v>
+        <v>0.9948059353297805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>321</v>
@@ -7610,19 +7610,19 @@
         <v>263737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256074</v>
+        <v>255600</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>268919</v>
+        <v>268934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9537614422326371</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9260507980974209</v>
+        <v>0.924335990539387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9724999249179009</v>
+        <v>0.9725565946611489</v>
       </c>
     </row>
     <row r="12">
@@ -7714,19 +7714,19 @@
         <v>2441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6475</v>
+        <v>6692</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01204367688755289</v>
+        <v>0.01204367688755288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003167706130695023</v>
+        <v>0.00351024696987848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03194905499544143</v>
+        <v>0.03302323526134708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00707498266984749</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -7756,19 +7756,19 @@
         <v>3420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8404</v>
+        <v>8442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0100276585743505</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003219075765851773</v>
+        <v>0.003279902911444689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0246430012971544</v>
+        <v>0.02475628730736061</v>
       </c>
     </row>
     <row r="14">
@@ -7785,19 +7785,19 @@
         <v>200212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196178</v>
+        <v>195961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202011</v>
+        <v>201942</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9879563231124472</v>
+        <v>0.9879563231124471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9680509450045585</v>
+        <v>0.9669767647386529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968322938693048</v>
+        <v>0.9964897530301214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -7806,7 +7806,7 @@
         <v>137387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135126</v>
+        <v>134784</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>138366</v>
@@ -7815,7 +7815,7 @@
         <v>0.9929250173301526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9765835942948946</v>
+        <v>0.9741141093474305</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -7827,19 +7827,19 @@
         <v>337599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>332615</v>
+        <v>332577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339921</v>
+        <v>339900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899723414256495</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753569987028453</v>
+        <v>0.9752437126926389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9967809242341481</v>
+        <v>0.9967200970885554</v>
       </c>
     </row>
     <row r="15">
@@ -7947,16 +7947,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="17">
@@ -8007,7 +8007,7 @@
         <v>10376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -8016,7 +8016,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8028,16 +8028,16 @@
         <v>44513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8132,19 +8132,19 @@
         <v>4305</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1634</v>
+        <v>1822</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8682</v>
+        <v>9211</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02641414080741401</v>
+        <v>0.026414140807414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01002512235210501</v>
+        <v>0.01118068662632393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05327214632785508</v>
+        <v>0.05652009607745375</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8153,19 +8153,19 @@
         <v>2231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02272334166512192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8174,19 +8174,19 @@
         <v>6536</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3042</v>
+        <v>3062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12709</v>
+        <v>12499</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02502647000387571</v>
+        <v>0.0250264700038757</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01164791840827965</v>
+        <v>0.01172449153580827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04866338227082283</v>
+        <v>0.04785740400462839</v>
       </c>
     </row>
     <row r="20">
@@ -8203,19 +8203,19 @@
         <v>158668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154291</v>
+        <v>153762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161339</v>
+        <v>161151</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.973585859192586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9467278536721446</v>
+        <v>0.9434799039225463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9899748776478949</v>
+        <v>0.9888193133736762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -8224,19 +8224,19 @@
         <v>95963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91907</v>
+        <v>91987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772766583348782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359735691082509</v>
+        <v>0.9367848669423112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9944185495999649</v>
+        <v>0.9944251450328244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>350</v>
@@ -8245,19 +8245,19 @@
         <v>254631</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248458</v>
+        <v>248668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258125</v>
+        <v>258105</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9749735299961243</v>
+        <v>0.9749735299961244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9513366177291772</v>
+        <v>0.9521425959953719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9883520815917204</v>
+        <v>0.9882755084641917</v>
       </c>
     </row>
     <row r="21">
@@ -8349,19 +8349,19 @@
         <v>14493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7979</v>
+        <v>7753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25241</v>
+        <v>24496</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04144453568604642</v>
+        <v>0.04144453568604643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02281558996641002</v>
+        <v>0.02217096062951871</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07217655315278608</v>
+        <v>0.07004681131447792</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8370,19 +8370,19 @@
         <v>9693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4391</v>
+        <v>4424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20896</v>
+        <v>22907</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04148131303111814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01878874661499103</v>
+        <v>0.01893332565714797</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08942321895427531</v>
+        <v>0.09802541224166768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -8391,19 +8391,19 @@
         <v>24187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14947</v>
+        <v>15315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37454</v>
+        <v>36672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0414592671861758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02562117680154083</v>
+        <v>0.02625259162012082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0642016174956167</v>
+        <v>0.0628610168384432</v>
       </c>
     </row>
     <row r="23">
@@ -8420,19 +8420,19 @@
         <v>335212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>324464</v>
+        <v>325209</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>341726</v>
+        <v>341952</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9585554643139536</v>
+        <v>0.9585554643139537</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.927823446847214</v>
+        <v>0.929953188685522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9771844100335901</v>
+        <v>0.9778290393704812</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -8441,19 +8441,19 @@
         <v>223987</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>212784</v>
+        <v>210773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>229289</v>
+        <v>229256</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9585186869688819</v>
+        <v>0.9585186869688818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9105767810457254</v>
+        <v>0.9019745877583322</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9812112533850089</v>
+        <v>0.9810666743428519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>555</v>
@@ -8462,19 +8462,19 @@
         <v>559198</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>545931</v>
+        <v>546713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>568438</v>
+        <v>568070</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9585407328138241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9357983825043833</v>
+        <v>0.9371389831615561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9743788231984593</v>
+        <v>0.9737474083798788</v>
       </c>
     </row>
     <row r="24">
@@ -8566,19 +8566,19 @@
         <v>3980</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1053</v>
+        <v>979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9006</v>
+        <v>9078</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01270678623728471</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003360724122408698</v>
+        <v>0.003124699295609612</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02875524253936149</v>
+        <v>0.02898393002838284</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5541</v>
+        <v>5034</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01366885280874309</v>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04853740298043138</v>
+        <v>0.0440932545092713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -8608,19 +8608,19 @@
         <v>5540</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2207</v>
+        <v>2106</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11399</v>
+        <v>11461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01296379524816792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005164254653490564</v>
+        <v>0.00492705401384429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0266728927100296</v>
+        <v>0.02681906750991538</v>
       </c>
     </row>
     <row r="26">
@@ -8637,19 +8637,19 @@
         <v>309214</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>304188</v>
+        <v>304116</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>312141</v>
+        <v>312215</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9872932137627151</v>
+        <v>0.9872932137627153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9712447574606384</v>
+        <v>0.9710160699716174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9966392758775907</v>
+        <v>0.9968753007043907</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -8658,7 +8658,7 @@
         <v>112605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108625</v>
+        <v>109132</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>114166</v>
@@ -8667,7 +8667,7 @@
         <v>0.9863311471912569</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9514625970195688</v>
+        <v>0.9559067454907277</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -8679,19 +8679,19 @@
         <v>421821</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>415962</v>
+        <v>415900</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>425154</v>
+        <v>425255</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9870362047518322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9733271072899702</v>
+        <v>0.9731809324900843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9948357453465092</v>
+        <v>0.9950729459861549</v>
       </c>
     </row>
     <row r="27">
@@ -8783,19 +8783,19 @@
         <v>41211</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02462877741263587</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -8804,19 +8804,19 @@
         <v>16647</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -8825,19 +8825,19 @@
         <v>57858</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="29">
@@ -8854,19 +8854,19 @@
         <v>1632092</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1174</v>
@@ -8875,19 +8875,19 @@
         <v>879679</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2712</v>
@@ -8896,19 +8896,19 @@
         <v>2511770</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="30">
